--- a/liujie/2020年第7周工作事项.xlsx
+++ b/liujie/2020年第7周工作事项.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27940" windowHeight="10920"/>
+    <workbookView windowWidth="27940" windowHeight="12280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,8 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>项目立项模块设计文档编写，和问题整理</t>
+    <t>项目立项模块设计文档编写
+年前未完成模块及问题的整理文档</t>
   </si>
   <si>
     <t>朱振兴</t>
@@ -40,7 +41,8 @@
     <t>李慧浩</t>
   </si>
   <si>
-    <t>需求受理流程当前处理人意见和轨迹处理优化</t>
+    <t>需求受理流程当前处理人意见和轨迹处理优化的开发
+设计文档的编写</t>
   </si>
   <si>
     <t>彭俊军</t>
@@ -49,7 +51,8 @@
     <t>刘杰</t>
   </si>
   <si>
-    <t>党建云系统基础用户模块信息、多机构支持、单点登录功能开发</t>
+    <t>党建云系统基础用户模块信息、多机构支持、单点登录功能开发
+各个模块的详细设计文档编写。</t>
   </si>
   <si>
     <t>黄归</t>
@@ -58,7 +61,7 @@
     <t>向婷婷</t>
   </si>
   <si>
-    <t>党建云系统界面自定制模块方案文档。</t>
+    <t>党建云平台界面定制方案文档的编写。</t>
   </si>
   <si>
     <t>黄威</t>
@@ -69,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,7 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,24 +100,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,16 +139,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -147,51 +150,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +165,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -214,14 +209,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +239,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,169 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,24 +430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,17 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,159 +501,191 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1006,18 +1012,18 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="67.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="67.5714285714286" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7857142857143"/>
     <col min="5" max="5" width="10.7857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" ht="18" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1033,8 +1039,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" ht="36" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -1043,15 +1049,15 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>43871</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>43876</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" ht="36" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -1060,15 +1066,15 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>43871</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>43876</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    <row r="4" ht="36" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -1077,15 +1083,15 @@
       <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>43871</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>43876</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" ht="18" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
@@ -1094,10 +1100,10 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>43871</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>43876</v>
       </c>
     </row>
